--- a/exemples/cryptoWrappedEthPolygon.xlsx
+++ b/exemples/cryptoWrappedEthPolygon.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc2132d05d31c914a87c6611c10748aeb04b58e8f</t>
+    <t xml:space="preserve">0x3c499c542cef5e3811e1192ce70d8cc03d5c3359</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -220,60 +220,68 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -460,10 +468,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="A5:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -525,10 +533,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -539,374 +547,373 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
         <v>9999</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
         <v>9999</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>11998.8</v>
-      </c>
-      <c r="L2" s="6" t="n">
+        <v>13998.6</v>
+      </c>
+      <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
         <v>1E-013</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="10" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="13" t="n">
         <v>9999</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="13" t="n">
         <v>1E-013</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="14" t="n">
         <v>45972</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoWrappedEthPolygon.xlsx
+++ b/exemples/cryptoWrappedEthPolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -95,6 +95,72 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : valeur voulue , 0,00000000001 , et date du jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:01:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:04:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:32:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:02:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:02:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:05:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:01:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07:02:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:02:07</t>
   </si>
 </sst>
 </file>
@@ -220,68 +286,64 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,10 +530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="A5:F28"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -535,8 +597,8 @@
       <c r="C2" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>3</v>
+      <c r="D2" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -547,373 +609,478 @@
       <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">MIN(A4:A9999)</f>
+        <v>2917.67</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
+        <v>3127.77045454549</v>
+      </c>
+      <c r="K2" s="6" t="n">
+        <f aca="false">J2*(1+(C2/100))</f>
+        <v>4378.87863636368</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <f aca="false">SUM(B4:B9999)</f>
+        <v>22.0000000000001</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <f aca="false">COUNTA(A1:A9999)</f>
+        <v>17</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="n">
         <v>9999</v>
       </c>
-      <c r="J2" s="8" t="n">
-        <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>9999</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <f aca="false">J2*(1+(C2/100))</f>
-        <v>13998.6</v>
-      </c>
-      <c r="L2" s="8" t="n">
-        <f aca="false">SUM(B4:B9999)</f>
+      <c r="B4" s="12" t="n">
         <v>1E-013</v>
       </c>
-      <c r="M2" s="9" t="n">
-        <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
-      </c>
-      <c r="N2" s="10" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B4" s="13" t="n">
-        <v>1E-013</v>
-      </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="13" t="n">
         <v>45972</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="12" t="n">
+        <v>3542.45</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="12" t="n">
+        <v>3479.56</v>
+      </c>
+      <c r="B6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="12" t="n">
+        <v>3420.64</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="12" t="n">
+        <v>3257.54</v>
+      </c>
+      <c r="B8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="12" t="n">
+        <v>3181.69</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="11" t="n">
+        <v>3128.79</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="11" t="n">
+        <v>3120.94</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="11" t="n">
+        <v>3096.19</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="11" t="n">
+        <v>3093.49</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="11" t="n">
+        <v>3063.72</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="11" t="n">
+        <v>3027.75</v>
+      </c>
+      <c r="B15" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="11" t="n">
+        <v>3014.15</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="11" t="n">
+        <v>2917.67</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-    </row>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
